--- a/clients_generated_refill.xlsx
+++ b/clients_generated_refill.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Formation web\Programmes_Prospection\GP\GP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\Formation web\Programmes_Prospection\Fichier_final_gp\GP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14CA14B-4567-454A-ADB7-D4BB225DF3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53332889-E0A0-4673-BA77-D0C7C69629FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$W$41</definedName>
+  </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="395">
   <si>
     <t>id</t>
   </si>
@@ -485,12 +489,735 @@
   </si>
   <si>
     <t>a001</t>
+  </si>
+  <si>
+    <t>Société 31</t>
+  </si>
+  <si>
+    <t>63137587475595</t>
+  </si>
+  <si>
+    <t>4 Rue Exemple</t>
+  </si>
+  <si>
+    <t>0150758681</t>
+  </si>
+  <si>
+    <t>0691712719</t>
+  </si>
+  <si>
+    <t>contact31@societe31.com</t>
+  </si>
+  <si>
+    <t>info31@societe31.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 31</t>
+  </si>
+  <si>
+    <t>Société 32</t>
+  </si>
+  <si>
+    <t>66564775559674</t>
+  </si>
+  <si>
+    <t>8 Rue Exemple</t>
+  </si>
+  <si>
+    <t>0158048046</t>
+  </si>
+  <si>
+    <t>0628822155</t>
+  </si>
+  <si>
+    <t>contact32@societe32.com</t>
+  </si>
+  <si>
+    <t>info32@societe32.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 32</t>
+  </si>
+  <si>
+    <t>Société 33</t>
+  </si>
+  <si>
+    <t>62942777012293</t>
+  </si>
+  <si>
+    <t>0128319106</t>
+  </si>
+  <si>
+    <t>0648766252</t>
+  </si>
+  <si>
+    <t>contact33@societe33.com</t>
+  </si>
+  <si>
+    <t>info33@societe33.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 33</t>
+  </si>
+  <si>
+    <t>Société 34</t>
+  </si>
+  <si>
+    <t>97252935419283</t>
+  </si>
+  <si>
+    <t>0126108072</t>
+  </si>
+  <si>
+    <t>0615088693</t>
+  </si>
+  <si>
+    <t>contact34@societe34.com</t>
+  </si>
+  <si>
+    <t>info34@societe34.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 34</t>
+  </si>
+  <si>
+    <t>Société 35</t>
+  </si>
+  <si>
+    <t>27281804886472</t>
+  </si>
+  <si>
+    <t>34 Rue Exemple</t>
+  </si>
+  <si>
+    <t>0118913554</t>
+  </si>
+  <si>
+    <t>0649016461</t>
+  </si>
+  <si>
+    <t>contact35@societe35.com</t>
+  </si>
+  <si>
+    <t>info35@societe35.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 35</t>
+  </si>
+  <si>
+    <t>Société 36</t>
+  </si>
+  <si>
+    <t>64869613246602</t>
+  </si>
+  <si>
+    <t>0158352745</t>
+  </si>
+  <si>
+    <t>0680770874</t>
+  </si>
+  <si>
+    <t>contact36@societe36.com</t>
+  </si>
+  <si>
+    <t>info36@societe36.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 36</t>
+  </si>
+  <si>
+    <t>Société 37</t>
+  </si>
+  <si>
+    <t>97698749215644</t>
+  </si>
+  <si>
+    <t>21 Rue Exemple</t>
+  </si>
+  <si>
+    <t>0114560983</t>
+  </si>
+  <si>
+    <t>0614454405</t>
+  </si>
+  <si>
+    <t>contact37@societe37.com</t>
+  </si>
+  <si>
+    <t>info37@societe37.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 37</t>
+  </si>
+  <si>
+    <t>Société 38</t>
+  </si>
+  <si>
+    <t>34558126889093</t>
+  </si>
+  <si>
+    <t>42 Rue Exemple</t>
+  </si>
+  <si>
+    <t>0162492502</t>
+  </si>
+  <si>
+    <t>0685731159</t>
+  </si>
+  <si>
+    <t>contact38@societe38.com</t>
+  </si>
+  <si>
+    <t>info38@societe38.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 38</t>
+  </si>
+  <si>
+    <t>Société 39</t>
+  </si>
+  <si>
+    <t>39411643899545</t>
+  </si>
+  <si>
+    <t>38 Rue Exemple</t>
+  </si>
+  <si>
+    <t>0172973744</t>
+  </si>
+  <si>
+    <t>0645834147</t>
+  </si>
+  <si>
+    <t>contact39@societe39.com</t>
+  </si>
+  <si>
+    <t>info39@societe39.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 39</t>
+  </si>
+  <si>
+    <t>Société 40</t>
+  </si>
+  <si>
+    <t>11958245627448</t>
+  </si>
+  <si>
+    <t>0189746077</t>
+  </si>
+  <si>
+    <t>0668471072</t>
+  </si>
+  <si>
+    <t>contact40@societe40.com</t>
+  </si>
+  <si>
+    <t>info40@societe40.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 40</t>
+  </si>
+  <si>
+    <t>Société 41</t>
+  </si>
+  <si>
+    <t>47210092658436</t>
+  </si>
+  <si>
+    <t>17 Rue Exemple</t>
+  </si>
+  <si>
+    <t>0168634451</t>
+  </si>
+  <si>
+    <t>0625164927</t>
+  </si>
+  <si>
+    <t>contact41@societe41.com</t>
+  </si>
+  <si>
+    <t>info41@societe41.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 41</t>
+  </si>
+  <si>
+    <t>Société 42</t>
+  </si>
+  <si>
+    <t>89237995293035</t>
+  </si>
+  <si>
+    <t>1 Rue Exemple</t>
+  </si>
+  <si>
+    <t>0111556969</t>
+  </si>
+  <si>
+    <t>0615686907</t>
+  </si>
+  <si>
+    <t>contact42@societe42.com</t>
+  </si>
+  <si>
+    <t>info42@societe42.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 42</t>
+  </si>
+  <si>
+    <t>Société 43</t>
+  </si>
+  <si>
+    <t>17364007840364</t>
+  </si>
+  <si>
+    <t>9 Rue Exemple</t>
+  </si>
+  <si>
+    <t>0137276680</t>
+  </si>
+  <si>
+    <t>0652476324</t>
+  </si>
+  <si>
+    <t>contact43@societe43.com</t>
+  </si>
+  <si>
+    <t>info43@societe43.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 43</t>
+  </si>
+  <si>
+    <t>Société 44</t>
+  </si>
+  <si>
+    <t>91435754056653</t>
+  </si>
+  <si>
+    <t>29 Rue Exemple</t>
+  </si>
+  <si>
+    <t>0133318932</t>
+  </si>
+  <si>
+    <t>0675423151</t>
+  </si>
+  <si>
+    <t>contact44@societe44.com</t>
+  </si>
+  <si>
+    <t>info44@societe44.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 44</t>
+  </si>
+  <si>
+    <t>Société 45</t>
+  </si>
+  <si>
+    <t>74544234112950</t>
+  </si>
+  <si>
+    <t>0156087761</t>
+  </si>
+  <si>
+    <t>0615373057</t>
+  </si>
+  <si>
+    <t>contact45@societe45.com</t>
+  </si>
+  <si>
+    <t>info45@societe45.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 45</t>
+  </si>
+  <si>
+    <t>Société 46</t>
+  </si>
+  <si>
+    <t>43035269266380</t>
+  </si>
+  <si>
+    <t>37 Rue Exemple</t>
+  </si>
+  <si>
+    <t>0144802473</t>
+  </si>
+  <si>
+    <t>0618775771</t>
+  </si>
+  <si>
+    <t>contact46@societe46.com</t>
+  </si>
+  <si>
+    <t>info46@societe46.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 46</t>
+  </si>
+  <si>
+    <t>Société 47</t>
+  </si>
+  <si>
+    <t>82952214777476</t>
+  </si>
+  <si>
+    <t>48 Rue Exemple</t>
+  </si>
+  <si>
+    <t>0157076724</t>
+  </si>
+  <si>
+    <t>0676322770</t>
+  </si>
+  <si>
+    <t>contact47@societe47.com</t>
+  </si>
+  <si>
+    <t>info47@societe47.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 47</t>
+  </si>
+  <si>
+    <t>Société 48</t>
+  </si>
+  <si>
+    <t>16337640089821</t>
+  </si>
+  <si>
+    <t>24 Rue Exemple</t>
+  </si>
+  <si>
+    <t>0174679259</t>
+  </si>
+  <si>
+    <t>0621874302</t>
+  </si>
+  <si>
+    <t>contact48@societe48.com</t>
+  </si>
+  <si>
+    <t>info48@societe48.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 48</t>
+  </si>
+  <si>
+    <t>Société 49</t>
+  </si>
+  <si>
+    <t>67156569812910</t>
+  </si>
+  <si>
+    <t>18 Rue Exemple</t>
+  </si>
+  <si>
+    <t>0173090573</t>
+  </si>
+  <si>
+    <t>0660812730</t>
+  </si>
+  <si>
+    <t>contact49@societe49.com</t>
+  </si>
+  <si>
+    <t>info49@societe49.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 49</t>
+  </si>
+  <si>
+    <t>Société 50</t>
+  </si>
+  <si>
+    <t>65602977930927</t>
+  </si>
+  <si>
+    <t>0126876807</t>
+  </si>
+  <si>
+    <t>0619774834</t>
+  </si>
+  <si>
+    <t>contact50@societe50.com</t>
+  </si>
+  <si>
+    <t>info50@societe50.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 50</t>
+  </si>
+  <si>
+    <t>Société 51</t>
+  </si>
+  <si>
+    <t>80031874416632</t>
+  </si>
+  <si>
+    <t>0161585540</t>
+  </si>
+  <si>
+    <t>0661914556</t>
+  </si>
+  <si>
+    <t>contact51@societe51.com</t>
+  </si>
+  <si>
+    <t>info51@societe51.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 51</t>
+  </si>
+  <si>
+    <t>Société 52</t>
+  </si>
+  <si>
+    <t>74503829520634</t>
+  </si>
+  <si>
+    <t>44 Rue Exemple</t>
+  </si>
+  <si>
+    <t>0153565305</t>
+  </si>
+  <si>
+    <t>0643349259</t>
+  </si>
+  <si>
+    <t>contact52@societe52.com</t>
+  </si>
+  <si>
+    <t>info52@societe52.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 52</t>
+  </si>
+  <si>
+    <t>Société 53</t>
+  </si>
+  <si>
+    <t>49689140470806</t>
+  </si>
+  <si>
+    <t>0130726080</t>
+  </si>
+  <si>
+    <t>0651847429</t>
+  </si>
+  <si>
+    <t>contact53@societe53.com</t>
+  </si>
+  <si>
+    <t>info53@societe53.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 53</t>
+  </si>
+  <si>
+    <t>Société 54</t>
+  </si>
+  <si>
+    <t>88921074200951</t>
+  </si>
+  <si>
+    <t>0183378963</t>
+  </si>
+  <si>
+    <t>0697554525</t>
+  </si>
+  <si>
+    <t>contact54@societe54.com</t>
+  </si>
+  <si>
+    <t>info54@societe54.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 54</t>
+  </si>
+  <si>
+    <t>Société 55</t>
+  </si>
+  <si>
+    <t>59686916408264</t>
+  </si>
+  <si>
+    <t>0175010760</t>
+  </si>
+  <si>
+    <t>0644506048</t>
+  </si>
+  <si>
+    <t>contact55@societe55.com</t>
+  </si>
+  <si>
+    <t>info55@societe55.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 55</t>
+  </si>
+  <si>
+    <t>Société 56</t>
+  </si>
+  <si>
+    <t>68247877717631</t>
+  </si>
+  <si>
+    <t>0154797682</t>
+  </si>
+  <si>
+    <t>0637745618</t>
+  </si>
+  <si>
+    <t>contact56@societe56.com</t>
+  </si>
+  <si>
+    <t>info56@societe56.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 56</t>
+  </si>
+  <si>
+    <t>Société 57</t>
+  </si>
+  <si>
+    <t>13180203388244</t>
+  </si>
+  <si>
+    <t>20 Rue Exemple</t>
+  </si>
+  <si>
+    <t>0174878860</t>
+  </si>
+  <si>
+    <t>0628136165</t>
+  </si>
+  <si>
+    <t>contact57@societe57.com</t>
+  </si>
+  <si>
+    <t>info57@societe57.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 57</t>
+  </si>
+  <si>
+    <t>Société 58</t>
+  </si>
+  <si>
+    <t>90827174115788</t>
+  </si>
+  <si>
+    <t>35 Rue Exemple</t>
+  </si>
+  <si>
+    <t>0149608533</t>
+  </si>
+  <si>
+    <t>0620279440</t>
+  </si>
+  <si>
+    <t>contact58@societe58.com</t>
+  </si>
+  <si>
+    <t>info58@societe58.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 58</t>
+  </si>
+  <si>
+    <t>Société 59</t>
+  </si>
+  <si>
+    <t>25203889265460</t>
+  </si>
+  <si>
+    <t>47 Rue Exemple</t>
+  </si>
+  <si>
+    <t>0172159806</t>
+  </si>
+  <si>
+    <t>0674990783</t>
+  </si>
+  <si>
+    <t>contact59@societe59.com</t>
+  </si>
+  <si>
+    <t>info59@societe59.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 59</t>
+  </si>
+  <si>
+    <t>Société 60</t>
+  </si>
+  <si>
+    <t>60094117786929</t>
+  </si>
+  <si>
+    <t>0190899803</t>
+  </si>
+  <si>
+    <t>0635378369</t>
+  </si>
+  <si>
+    <t>contact60@societe60.com</t>
+  </si>
+  <si>
+    <t>info60@societe60.com</t>
+  </si>
+  <si>
+    <t>Commentaire sur la société 60</t>
+  </si>
+  <si>
+    <t>b002</t>
+  </si>
+  <si>
+    <t>c003</t>
+  </si>
+  <si>
+    <t>nombreDossiers</t>
+  </si>
+  <si>
+    <t>montantEstime</t>
+  </si>
+  <si>
+    <t>&lt;10</t>
+  </si>
+  <si>
+    <t>&lt;100</t>
+  </si>
+  <si>
+    <t>&lt;500</t>
+  </si>
+  <si>
+    <t>+500</t>
+  </si>
+  <si>
+    <t>&lt;1000</t>
+  </si>
+  <si>
+    <t>&lt;10000</t>
+  </si>
+  <si>
+    <t>&lt;5000</t>
+  </si>
+  <si>
+    <t>+10000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -555,7 +1282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -563,6 +1290,11 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -867,21 +1599,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="R42" sqref="R42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -931,24 +1668,30 @@
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>202412041529</v>
+        <v>20241912235701</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -996,24 +1739,30 @@
         <v>122</v>
       </c>
       <c r="Q2" t="s">
+        <v>387</v>
+      </c>
+      <c r="R2" t="s">
+        <v>389</v>
+      </c>
+      <c r="S2" t="s">
         <v>132</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>142</v>
       </c>
-      <c r="S2" t="s">
-        <v>152</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
+        <v>152</v>
+      </c>
+      <c r="V2" t="s">
         <v>154</v>
       </c>
-      <c r="U2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>202412041530</v>
+        <v>20241912235702</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
@@ -1061,24 +1810,30 @@
         <v>123</v>
       </c>
       <c r="Q3" t="s">
+        <v>387</v>
+      </c>
+      <c r="R3" t="s">
+        <v>389</v>
+      </c>
+      <c r="S3" t="s">
         <v>133</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>143</v>
       </c>
-      <c r="S3" t="s">
-        <v>152</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
+        <v>152</v>
+      </c>
+      <c r="V3" t="s">
         <v>154</v>
       </c>
-      <c r="U3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>202412041531</v>
+        <v>20241912235703</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -1126,24 +1881,30 @@
         <v>124</v>
       </c>
       <c r="Q4" t="s">
+        <v>387</v>
+      </c>
+      <c r="R4" t="s">
+        <v>391</v>
+      </c>
+      <c r="S4" t="s">
         <v>134</v>
       </c>
-      <c r="R4" t="s">
+      <c r="T4" t="s">
         <v>144</v>
       </c>
-      <c r="S4" t="s">
-        <v>152</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
+        <v>152</v>
+      </c>
+      <c r="V4" t="s">
         <v>154</v>
       </c>
-      <c r="U4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>202412041532</v>
+        <v>20241912235704</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -1191,24 +1952,30 @@
         <v>125</v>
       </c>
       <c r="Q5" t="s">
+        <v>388</v>
+      </c>
+      <c r="R5" t="s">
+        <v>391</v>
+      </c>
+      <c r="S5" t="s">
         <v>135</v>
       </c>
-      <c r="R5" t="s">
+      <c r="T5" t="s">
         <v>145</v>
       </c>
-      <c r="S5" t="s">
-        <v>152</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
+        <v>152</v>
+      </c>
+      <c r="V5" t="s">
         <v>154</v>
       </c>
-      <c r="U5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>202412041533</v>
+        <v>20241912235705</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -1256,24 +2023,30 @@
         <v>126</v>
       </c>
       <c r="Q6" t="s">
+        <v>388</v>
+      </c>
+      <c r="R6" t="s">
+        <v>393</v>
+      </c>
+      <c r="S6" t="s">
         <v>136</v>
       </c>
-      <c r="R6" t="s">
+      <c r="T6" t="s">
         <v>146</v>
       </c>
-      <c r="S6" t="s">
-        <v>152</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
+        <v>152</v>
+      </c>
+      <c r="V6" t="s">
         <v>154</v>
       </c>
-      <c r="U6" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>202412041534</v>
+        <v>20241912235706</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -1321,24 +2094,30 @@
         <v>127</v>
       </c>
       <c r="Q7" t="s">
+        <v>389</v>
+      </c>
+      <c r="R7" t="s">
+        <v>393</v>
+      </c>
+      <c r="S7" t="s">
         <v>137</v>
       </c>
-      <c r="R7" t="s">
+      <c r="T7" t="s">
         <v>147</v>
       </c>
-      <c r="S7" t="s">
-        <v>152</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
+        <v>152</v>
+      </c>
+      <c r="V7" t="s">
         <v>154</v>
       </c>
-      <c r="U7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>202412041535</v>
+        <v>20241912235707</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
@@ -1386,24 +2165,30 @@
         <v>128</v>
       </c>
       <c r="Q8" t="s">
+        <v>389</v>
+      </c>
+      <c r="R8" t="s">
+        <v>392</v>
+      </c>
+      <c r="S8" t="s">
         <v>138</v>
       </c>
-      <c r="R8" t="s">
+      <c r="T8" t="s">
         <v>148</v>
       </c>
-      <c r="S8" t="s">
-        <v>152</v>
-      </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
+        <v>152</v>
+      </c>
+      <c r="V8" t="s">
         <v>154</v>
       </c>
-      <c r="U8" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>202412041536</v>
+        <v>20241912235708</v>
       </c>
       <c r="B9" t="s">
         <v>28</v>
@@ -1450,25 +2235,31 @@
       <c r="P9" t="s">
         <v>129</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="Q9" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="R9" t="s">
+        <v>392</v>
+      </c>
+      <c r="S9" t="s">
         <v>139</v>
       </c>
-      <c r="R9" t="s">
+      <c r="T9" t="s">
         <v>149</v>
       </c>
-      <c r="S9" t="s">
-        <v>152</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
+        <v>152</v>
+      </c>
+      <c r="V9" t="s">
         <v>154</v>
       </c>
-      <c r="U9" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>202412041537</v>
+        <v>20241912235709</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -1516,24 +2307,30 @@
         <v>130</v>
       </c>
       <c r="Q10" t="s">
+        <v>387</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="S10" t="s">
         <v>140</v>
       </c>
-      <c r="R10" t="s">
+      <c r="T10" t="s">
         <v>150</v>
       </c>
-      <c r="S10" t="s">
-        <v>152</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
+        <v>152</v>
+      </c>
+      <c r="V10" t="s">
         <v>154</v>
       </c>
-      <c r="U10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>202412041538</v>
+        <v>20241912235710</v>
       </c>
       <c r="B11" t="s">
         <v>30</v>
@@ -1581,18 +2378,2127 @@
         <v>131</v>
       </c>
       <c r="Q11" t="s">
+        <v>387</v>
+      </c>
+      <c r="R11" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="S11" t="s">
         <v>141</v>
       </c>
-      <c r="R11" t="s">
+      <c r="T11" t="s">
         <v>151</v>
       </c>
-      <c r="S11" t="s">
-        <v>152</v>
-      </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
+        <v>152</v>
+      </c>
+      <c r="V11" t="s">
         <v>154</v>
       </c>
-      <c r="U11" t="s">
+      <c r="W11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>20241912235711</v>
+      </c>
+      <c r="B12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>427342041</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12">
+        <v>23999</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="O12" t="s">
+        <v>160</v>
+      </c>
+      <c r="P12" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>387</v>
+      </c>
+      <c r="R12" t="s">
+        <v>389</v>
+      </c>
+      <c r="S12" t="s">
+        <v>162</v>
+      </c>
+      <c r="T12" s="5">
+        <v>45352</v>
+      </c>
+      <c r="U12" t="s">
+        <v>152</v>
+      </c>
+      <c r="V12" t="s">
+        <v>154</v>
+      </c>
+      <c r="W12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>20241912235712</v>
+      </c>
+      <c r="B13" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>334995121</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>59</v>
+      </c>
+      <c r="H13" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L13">
+        <v>29222</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="O13" t="s">
+        <v>168</v>
+      </c>
+      <c r="P13" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>388</v>
+      </c>
+      <c r="R13" t="s">
+        <v>389</v>
+      </c>
+      <c r="S13" t="s">
+        <v>170</v>
+      </c>
+      <c r="T13" s="5">
+        <v>45359</v>
+      </c>
+      <c r="U13" t="s">
+        <v>152</v>
+      </c>
+      <c r="V13" t="s">
+        <v>154</v>
+      </c>
+      <c r="W13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>20241912235713</v>
+      </c>
+      <c r="B14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>233058317</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" t="s">
+        <v>65</v>
+      </c>
+      <c r="J14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14">
+        <v>60754</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="O14" t="s">
+        <v>175</v>
+      </c>
+      <c r="P14" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>388</v>
+      </c>
+      <c r="R14" t="s">
+        <v>391</v>
+      </c>
+      <c r="S14" t="s">
+        <v>177</v>
+      </c>
+      <c r="T14" s="5">
+        <v>45366</v>
+      </c>
+      <c r="U14" t="s">
+        <v>152</v>
+      </c>
+      <c r="V14" t="s">
+        <v>154</v>
+      </c>
+      <c r="W14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>20241912235714</v>
+      </c>
+      <c r="B15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>909515300</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" t="s">
+        <v>67</v>
+      </c>
+      <c r="J15" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L15">
+        <v>16069</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="O15" t="s">
+        <v>182</v>
+      </c>
+      <c r="P15" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>389</v>
+      </c>
+      <c r="R15" t="s">
+        <v>391</v>
+      </c>
+      <c r="S15" t="s">
+        <v>184</v>
+      </c>
+      <c r="T15" s="5">
+        <v>45373</v>
+      </c>
+      <c r="U15" t="s">
+        <v>152</v>
+      </c>
+      <c r="V15" t="s">
+        <v>383</v>
+      </c>
+      <c r="W15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>20241912235715</v>
+      </c>
+      <c r="B16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16">
+        <v>404544613</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>60</v>
+      </c>
+      <c r="H16" t="s">
+        <v>63</v>
+      </c>
+      <c r="I16" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" t="s">
+        <v>187</v>
+      </c>
+      <c r="L16">
+        <v>79709</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="N16" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="O16" t="s">
+        <v>190</v>
+      </c>
+      <c r="P16" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>389</v>
+      </c>
+      <c r="R16" t="s">
+        <v>393</v>
+      </c>
+      <c r="S16" t="s">
+        <v>192</v>
+      </c>
+      <c r="T16" s="5">
+        <v>45380</v>
+      </c>
+      <c r="U16" t="s">
+        <v>152</v>
+      </c>
+      <c r="V16" t="s">
+        <v>383</v>
+      </c>
+      <c r="W16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>20241912235716</v>
+      </c>
+      <c r="B17" t="s">
+        <v>193</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17">
+        <v>711176066</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
+        <v>59</v>
+      </c>
+      <c r="H17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17">
+        <v>40628</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="O17" t="s">
+        <v>197</v>
+      </c>
+      <c r="P17" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q17" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="R17" t="s">
+        <v>393</v>
+      </c>
+      <c r="S17" t="s">
+        <v>199</v>
+      </c>
+      <c r="T17" s="5">
+        <v>45387</v>
+      </c>
+      <c r="U17" t="s">
+        <v>152</v>
+      </c>
+      <c r="V17" t="s">
+        <v>383</v>
+      </c>
+      <c r="W17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>20241912235717</v>
+      </c>
+      <c r="B18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18">
+        <v>386662661</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I18" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" t="s">
+        <v>202</v>
+      </c>
+      <c r="K18" t="s">
+        <v>78</v>
+      </c>
+      <c r="L18">
+        <v>58770</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="N18" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="O18" t="s">
+        <v>205</v>
+      </c>
+      <c r="P18" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>387</v>
+      </c>
+      <c r="R18" t="s">
+        <v>392</v>
+      </c>
+      <c r="S18" t="s">
+        <v>207</v>
+      </c>
+      <c r="T18" s="5">
+        <v>45394</v>
+      </c>
+      <c r="U18" t="s">
+        <v>152</v>
+      </c>
+      <c r="V18" t="s">
+        <v>383</v>
+      </c>
+      <c r="W18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>20241912235718</v>
+      </c>
+      <c r="B19" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19">
+        <v>433038232</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" t="s">
+        <v>210</v>
+      </c>
+      <c r="L19">
+        <v>70712</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="O19" t="s">
+        <v>213</v>
+      </c>
+      <c r="P19" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>387</v>
+      </c>
+      <c r="R19" t="s">
+        <v>392</v>
+      </c>
+      <c r="S19" t="s">
+        <v>215</v>
+      </c>
+      <c r="T19" s="5">
+        <v>45401</v>
+      </c>
+      <c r="U19" t="s">
+        <v>152</v>
+      </c>
+      <c r="V19" t="s">
+        <v>383</v>
+      </c>
+      <c r="W19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>20241912235719</v>
+      </c>
+      <c r="B20" t="s">
+        <v>216</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>447798877</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" t="s">
+        <v>218</v>
+      </c>
+      <c r="L20">
+        <v>20091</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="O20" t="s">
+        <v>221</v>
+      </c>
+      <c r="P20" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>387</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="S20" t="s">
+        <v>223</v>
+      </c>
+      <c r="T20" s="5">
+        <v>45408</v>
+      </c>
+      <c r="U20" t="s">
+        <v>152</v>
+      </c>
+      <c r="V20" t="s">
+        <v>383</v>
+      </c>
+      <c r="W20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20241912235720</v>
+      </c>
+      <c r="B21" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21">
+        <v>797254182</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="F21" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" t="s">
+        <v>60</v>
+      </c>
+      <c r="H21" t="s">
+        <v>63</v>
+      </c>
+      <c r="I21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
+      <c r="K21" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21">
+        <v>41561</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="O21" t="s">
+        <v>228</v>
+      </c>
+      <c r="P21" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>388</v>
+      </c>
+      <c r="R21" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="S21" t="s">
+        <v>230</v>
+      </c>
+      <c r="T21" s="5">
+        <v>45415</v>
+      </c>
+      <c r="U21" t="s">
+        <v>152</v>
+      </c>
+      <c r="V21" t="s">
+        <v>383</v>
+      </c>
+      <c r="W21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>20241912235721</v>
+      </c>
+      <c r="B22" t="s">
+        <v>231</v>
+      </c>
+      <c r="C22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22">
+        <v>210834492</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="F22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" t="s">
+        <v>59</v>
+      </c>
+      <c r="H22" t="s">
+        <v>64</v>
+      </c>
+      <c r="I22" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" t="s">
+        <v>233</v>
+      </c>
+      <c r="K22" t="s">
+        <v>79</v>
+      </c>
+      <c r="L22">
+        <v>26834</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="O22" t="s">
+        <v>236</v>
+      </c>
+      <c r="P22" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>388</v>
+      </c>
+      <c r="R22" t="s">
+        <v>389</v>
+      </c>
+      <c r="S22" t="s">
+        <v>238</v>
+      </c>
+      <c r="T22" s="5">
+        <v>45422</v>
+      </c>
+      <c r="U22" t="s">
+        <v>152</v>
+      </c>
+      <c r="V22" t="s">
+        <v>383</v>
+      </c>
+      <c r="W22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>20241912235722</v>
+      </c>
+      <c r="B23" t="s">
+        <v>239</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>979893714</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" t="s">
+        <v>59</v>
+      </c>
+      <c r="H23" t="s">
+        <v>63</v>
+      </c>
+      <c r="I23" t="s">
+        <v>66</v>
+      </c>
+      <c r="J23" t="s">
+        <v>241</v>
+      </c>
+      <c r="K23" t="s">
+        <v>79</v>
+      </c>
+      <c r="L23">
+        <v>14204</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="O23" t="s">
+        <v>244</v>
+      </c>
+      <c r="P23" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>389</v>
+      </c>
+      <c r="R23" t="s">
+        <v>389</v>
+      </c>
+      <c r="S23" t="s">
+        <v>246</v>
+      </c>
+      <c r="T23" s="5">
+        <v>45429</v>
+      </c>
+      <c r="U23" t="s">
+        <v>152</v>
+      </c>
+      <c r="V23" t="s">
+        <v>383</v>
+      </c>
+      <c r="W23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>20241912235723</v>
+      </c>
+      <c r="B24" t="s">
+        <v>247</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <v>380551628</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F24" t="s">
+        <v>57</v>
+      </c>
+      <c r="G24" t="s">
+        <v>59</v>
+      </c>
+      <c r="H24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I24" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" t="s">
+        <v>249</v>
+      </c>
+      <c r="L24">
+        <v>87306</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="O24" t="s">
+        <v>252</v>
+      </c>
+      <c r="P24" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>389</v>
+      </c>
+      <c r="R24" t="s">
+        <v>391</v>
+      </c>
+      <c r="S24" t="s">
+        <v>254</v>
+      </c>
+      <c r="T24" s="5">
+        <v>45436</v>
+      </c>
+      <c r="U24" t="s">
+        <v>152</v>
+      </c>
+      <c r="V24" t="s">
+        <v>383</v>
+      </c>
+      <c r="W24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>20241912235724</v>
+      </c>
+      <c r="B25" t="s">
+        <v>255</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25">
+        <v>829211605</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" t="s">
+        <v>60</v>
+      </c>
+      <c r="H25" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" t="s">
+        <v>66</v>
+      </c>
+      <c r="J25" t="s">
+        <v>257</v>
+      </c>
+      <c r="L25">
+        <v>48776</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="O25" t="s">
+        <v>260</v>
+      </c>
+      <c r="P25" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q25" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="R25" t="s">
+        <v>391</v>
+      </c>
+      <c r="S25" t="s">
+        <v>262</v>
+      </c>
+      <c r="T25" s="5">
+        <v>45443</v>
+      </c>
+      <c r="U25" t="s">
+        <v>152</v>
+      </c>
+      <c r="V25" t="s">
+        <v>383</v>
+      </c>
+      <c r="W25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>20241912235725</v>
+      </c>
+      <c r="B26" t="s">
+        <v>263</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26">
+        <v>279781862</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" t="s">
+        <v>60</v>
+      </c>
+      <c r="H26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I26" t="s">
+        <v>67</v>
+      </c>
+      <c r="J26" t="s">
+        <v>72</v>
+      </c>
+      <c r="K26" t="s">
+        <v>79</v>
+      </c>
+      <c r="L26">
+        <v>97466</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="O26" t="s">
+        <v>267</v>
+      </c>
+      <c r="P26" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>387</v>
+      </c>
+      <c r="R26" t="s">
+        <v>393</v>
+      </c>
+      <c r="S26" t="s">
+        <v>269</v>
+      </c>
+      <c r="T26" s="5">
+        <v>45450</v>
+      </c>
+      <c r="U26" t="s">
+        <v>152</v>
+      </c>
+      <c r="V26" t="s">
+        <v>383</v>
+      </c>
+      <c r="W26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>20241912235726</v>
+      </c>
+      <c r="B27" t="s">
+        <v>270</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27">
+        <v>820064826</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F27" t="s">
+        <v>58</v>
+      </c>
+      <c r="G27" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" t="s">
+        <v>62</v>
+      </c>
+      <c r="I27" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" t="s">
+        <v>272</v>
+      </c>
+      <c r="K27" t="s">
+        <v>78</v>
+      </c>
+      <c r="L27">
+        <v>29763</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="O27" t="s">
+        <v>275</v>
+      </c>
+      <c r="P27" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>387</v>
+      </c>
+      <c r="R27" t="s">
+        <v>393</v>
+      </c>
+      <c r="S27" t="s">
+        <v>277</v>
+      </c>
+      <c r="T27" s="5">
+        <v>45457</v>
+      </c>
+      <c r="U27" t="s">
+        <v>152</v>
+      </c>
+      <c r="V27" t="s">
+        <v>383</v>
+      </c>
+      <c r="W27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>20241912235727</v>
+      </c>
+      <c r="B28" t="s">
+        <v>278</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28">
+        <v>912247571</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="F28" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" t="s">
+        <v>59</v>
+      </c>
+      <c r="H28" t="s">
+        <v>62</v>
+      </c>
+      <c r="I28" t="s">
+        <v>66</v>
+      </c>
+      <c r="J28" t="s">
+        <v>280</v>
+      </c>
+      <c r="L28">
+        <v>11496</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="O28" t="s">
+        <v>283</v>
+      </c>
+      <c r="P28" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>387</v>
+      </c>
+      <c r="R28" t="s">
+        <v>392</v>
+      </c>
+      <c r="S28" t="s">
+        <v>285</v>
+      </c>
+      <c r="T28" s="5">
+        <v>45464</v>
+      </c>
+      <c r="U28" t="s">
+        <v>152</v>
+      </c>
+      <c r="V28" t="s">
+        <v>383</v>
+      </c>
+      <c r="W28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>20241912235728</v>
+      </c>
+      <c r="B29" t="s">
+        <v>286</v>
+      </c>
+      <c r="C29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D29">
+        <v>537308149</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" t="s">
+        <v>288</v>
+      </c>
+      <c r="L29">
+        <v>95472</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="O29" t="s">
+        <v>291</v>
+      </c>
+      <c r="P29" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>388</v>
+      </c>
+      <c r="R29" t="s">
+        <v>392</v>
+      </c>
+      <c r="S29" t="s">
+        <v>293</v>
+      </c>
+      <c r="T29" s="5">
+        <v>45471</v>
+      </c>
+      <c r="U29" t="s">
+        <v>152</v>
+      </c>
+      <c r="V29" t="s">
+        <v>383</v>
+      </c>
+      <c r="W29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>20241912235729</v>
+      </c>
+      <c r="B30" t="s">
+        <v>294</v>
+      </c>
+      <c r="C30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>585634172</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G30" t="s">
+        <v>59</v>
+      </c>
+      <c r="H30" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" t="s">
+        <v>65</v>
+      </c>
+      <c r="J30" t="s">
+        <v>296</v>
+      </c>
+      <c r="K30" t="s">
+        <v>79</v>
+      </c>
+      <c r="L30">
+        <v>65495</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="O30" t="s">
+        <v>299</v>
+      </c>
+      <c r="P30" t="s">
+        <v>300</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>388</v>
+      </c>
+      <c r="R30" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="S30" t="s">
+        <v>301</v>
+      </c>
+      <c r="T30" s="5">
+        <v>45478</v>
+      </c>
+      <c r="U30" t="s">
+        <v>152</v>
+      </c>
+      <c r="V30" t="s">
+        <v>383</v>
+      </c>
+      <c r="W30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>20241912235730</v>
+      </c>
+      <c r="B31" t="s">
+        <v>302</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31">
+        <v>722223552</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F31" t="s">
+        <v>58</v>
+      </c>
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" t="s">
+        <v>249</v>
+      </c>
+      <c r="K31" t="s">
+        <v>79</v>
+      </c>
+      <c r="L31">
+        <v>24621</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="N31" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="O31" t="s">
+        <v>306</v>
+      </c>
+      <c r="P31" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>389</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="S31" t="s">
+        <v>308</v>
+      </c>
+      <c r="T31" s="5">
+        <v>45485</v>
+      </c>
+      <c r="U31" t="s">
+        <v>152</v>
+      </c>
+      <c r="V31" t="s">
+        <v>384</v>
+      </c>
+      <c r="W31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>20241912235731</v>
+      </c>
+      <c r="B32" t="s">
+        <v>309</v>
+      </c>
+      <c r="C32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32">
+        <v>332395922</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="F32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" t="s">
+        <v>296</v>
+      </c>
+      <c r="L32">
+        <v>50805</v>
+      </c>
+      <c r="M32" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="N32" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="O32" t="s">
+        <v>313</v>
+      </c>
+      <c r="P32" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>389</v>
+      </c>
+      <c r="R32" t="s">
+        <v>389</v>
+      </c>
+      <c r="S32" t="s">
+        <v>315</v>
+      </c>
+      <c r="T32" s="5">
+        <v>45492</v>
+      </c>
+      <c r="U32" t="s">
+        <v>152</v>
+      </c>
+      <c r="V32" t="s">
+        <v>384</v>
+      </c>
+      <c r="W32" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>20241912235732</v>
+      </c>
+      <c r="B33" t="s">
+        <v>316</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>776148311</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" t="s">
+        <v>59</v>
+      </c>
+      <c r="H33" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" t="s">
+        <v>66</v>
+      </c>
+      <c r="J33" t="s">
+        <v>318</v>
+      </c>
+      <c r="K33" t="s">
+        <v>79</v>
+      </c>
+      <c r="L33">
+        <v>88646</v>
+      </c>
+      <c r="M33" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="O33" t="s">
+        <v>321</v>
+      </c>
+      <c r="P33" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q33" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="R33" t="s">
+        <v>389</v>
+      </c>
+      <c r="S33" t="s">
+        <v>323</v>
+      </c>
+      <c r="T33" s="5">
+        <v>45499</v>
+      </c>
+      <c r="U33" t="s">
+        <v>152</v>
+      </c>
+      <c r="V33" t="s">
+        <v>384</v>
+      </c>
+      <c r="W33" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>20241912235733</v>
+      </c>
+      <c r="B34" t="s">
+        <v>324</v>
+      </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34">
+        <v>866784068</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="F34" t="s">
+        <v>57</v>
+      </c>
+      <c r="G34" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" t="s">
+        <v>62</v>
+      </c>
+      <c r="I34" t="s">
+        <v>65</v>
+      </c>
+      <c r="J34" t="s">
+        <v>249</v>
+      </c>
+      <c r="K34" t="s">
+        <v>78</v>
+      </c>
+      <c r="L34">
+        <v>40179</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="O34" t="s">
+        <v>328</v>
+      </c>
+      <c r="P34" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>387</v>
+      </c>
+      <c r="R34" t="s">
+        <v>391</v>
+      </c>
+      <c r="S34" t="s">
+        <v>330</v>
+      </c>
+      <c r="T34" s="5">
+        <v>45506</v>
+      </c>
+      <c r="U34" t="s">
+        <v>152</v>
+      </c>
+      <c r="V34" t="s">
+        <v>384</v>
+      </c>
+      <c r="W34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>20241912235734</v>
+      </c>
+      <c r="B35" t="s">
+        <v>331</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <v>719046046</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F35" t="s">
+        <v>58</v>
+      </c>
+      <c r="G35" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" t="s">
+        <v>64</v>
+      </c>
+      <c r="I35" t="s">
+        <v>67</v>
+      </c>
+      <c r="J35" t="s">
+        <v>241</v>
+      </c>
+      <c r="K35" t="s">
+        <v>78</v>
+      </c>
+      <c r="L35">
+        <v>26957</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="N35" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="O35" t="s">
+        <v>335</v>
+      </c>
+      <c r="P35" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>387</v>
+      </c>
+      <c r="R35" t="s">
+        <v>391</v>
+      </c>
+      <c r="S35" t="s">
+        <v>337</v>
+      </c>
+      <c r="T35" s="5">
+        <v>45513</v>
+      </c>
+      <c r="U35" t="s">
+        <v>152</v>
+      </c>
+      <c r="V35" t="s">
+        <v>384</v>
+      </c>
+      <c r="W35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>20241912235735</v>
+      </c>
+      <c r="B36" t="s">
+        <v>338</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36">
+        <v>627772248</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F36" t="s">
+        <v>58</v>
+      </c>
+      <c r="G36" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" t="s">
+        <v>157</v>
+      </c>
+      <c r="K36" t="s">
+        <v>79</v>
+      </c>
+      <c r="L36">
+        <v>16370</v>
+      </c>
+      <c r="M36" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="N36" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="O36" t="s">
+        <v>342</v>
+      </c>
+      <c r="P36" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>387</v>
+      </c>
+      <c r="R36" t="s">
+        <v>393</v>
+      </c>
+      <c r="S36" t="s">
+        <v>344</v>
+      </c>
+      <c r="T36" s="5">
+        <v>45520</v>
+      </c>
+      <c r="U36" t="s">
+        <v>152</v>
+      </c>
+      <c r="V36" t="s">
+        <v>384</v>
+      </c>
+      <c r="W36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>20241912235736</v>
+      </c>
+      <c r="B37" t="s">
+        <v>345</v>
+      </c>
+      <c r="C37" t="s">
+        <v>31</v>
+      </c>
+      <c r="D37">
+        <v>105704113</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F37" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H37" t="s">
+        <v>63</v>
+      </c>
+      <c r="I37" t="s">
+        <v>67</v>
+      </c>
+      <c r="J37" t="s">
+        <v>187</v>
+      </c>
+      <c r="K37" t="s">
+        <v>78</v>
+      </c>
+      <c r="L37">
+        <v>34396</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="N37" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="O37" t="s">
+        <v>349</v>
+      </c>
+      <c r="P37" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>388</v>
+      </c>
+      <c r="R37" t="s">
+        <v>393</v>
+      </c>
+      <c r="S37" t="s">
+        <v>351</v>
+      </c>
+      <c r="T37" s="5">
+        <v>45527</v>
+      </c>
+      <c r="U37" t="s">
+        <v>152</v>
+      </c>
+      <c r="V37" t="s">
+        <v>384</v>
+      </c>
+      <c r="W37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>20241912235737</v>
+      </c>
+      <c r="B38" t="s">
+        <v>352</v>
+      </c>
+      <c r="C38" t="s">
+        <v>31</v>
+      </c>
+      <c r="D38">
+        <v>846744550</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G38" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" t="s">
+        <v>62</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38" t="s">
+        <v>354</v>
+      </c>
+      <c r="K38" t="s">
+        <v>78</v>
+      </c>
+      <c r="L38">
+        <v>96182</v>
+      </c>
+      <c r="M38" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="N38" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="O38" t="s">
+        <v>357</v>
+      </c>
+      <c r="P38" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>388</v>
+      </c>
+      <c r="R38" t="s">
+        <v>392</v>
+      </c>
+      <c r="S38" t="s">
+        <v>359</v>
+      </c>
+      <c r="T38" s="5">
+        <v>45534</v>
+      </c>
+      <c r="U38" t="s">
+        <v>152</v>
+      </c>
+      <c r="V38" t="s">
+        <v>384</v>
+      </c>
+      <c r="W38" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>20241912235738</v>
+      </c>
+      <c r="B39" t="s">
+        <v>360</v>
+      </c>
+      <c r="C39" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39">
+        <v>634162445</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F39" t="s">
+        <v>56</v>
+      </c>
+      <c r="G39" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+      <c r="J39" t="s">
+        <v>362</v>
+      </c>
+      <c r="K39" t="s">
+        <v>81</v>
+      </c>
+      <c r="L39">
+        <v>84927</v>
+      </c>
+      <c r="M39" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="N39" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="O39" t="s">
+        <v>365</v>
+      </c>
+      <c r="P39" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>389</v>
+      </c>
+      <c r="R39" t="s">
+        <v>392</v>
+      </c>
+      <c r="S39" t="s">
+        <v>367</v>
+      </c>
+      <c r="T39" s="5">
+        <v>45541</v>
+      </c>
+      <c r="U39" t="s">
+        <v>152</v>
+      </c>
+      <c r="V39" t="s">
+        <v>384</v>
+      </c>
+      <c r="W39" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>20241912235739</v>
+      </c>
+      <c r="B40" t="s">
+        <v>368</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <v>583315860</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" t="s">
+        <v>62</v>
+      </c>
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+      <c r="J40" t="s">
+        <v>370</v>
+      </c>
+      <c r="K40" t="s">
+        <v>81</v>
+      </c>
+      <c r="L40">
+        <v>64725</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="O40" t="s">
+        <v>373</v>
+      </c>
+      <c r="P40" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>389</v>
+      </c>
+      <c r="R40" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="S40" t="s">
+        <v>375</v>
+      </c>
+      <c r="T40" s="5">
+        <v>45548</v>
+      </c>
+      <c r="U40" t="s">
+        <v>152</v>
+      </c>
+      <c r="V40" t="s">
+        <v>384</v>
+      </c>
+      <c r="W40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>20241912235740</v>
+      </c>
+      <c r="B41" t="s">
+        <v>376</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41">
+        <v>902806469</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="F41" t="s">
+        <v>57</v>
+      </c>
+      <c r="G41" t="s">
+        <v>59</v>
+      </c>
+      <c r="H41" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+      <c r="J41" t="s">
+        <v>288</v>
+      </c>
+      <c r="K41" t="s">
+        <v>79</v>
+      </c>
+      <c r="L41">
+        <v>23775</v>
+      </c>
+      <c r="M41" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="N41" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="O41" t="s">
+        <v>380</v>
+      </c>
+      <c r="P41" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q41" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="R41" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="S41" t="s">
+        <v>382</v>
+      </c>
+      <c r="T41" s="5">
+        <v>45555</v>
+      </c>
+      <c r="U41" t="s">
+        <v>152</v>
+      </c>
+      <c r="V41" t="s">
+        <v>384</v>
+      </c>
+      <c r="W41" t="s">
         <v>153</v>
       </c>
     </row>
@@ -1600,4 +4506,1914 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12C7897-4932-4EE6-8D4D-F651AA841D2D}">
+  <dimension ref="A1:T31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:T31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>427342041</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J2" t="s">
+        <v>81</v>
+      </c>
+      <c r="K2">
+        <v>23999</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="N2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P2" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>45352</v>
+      </c>
+      <c r="R2" t="s">
+        <v>152</v>
+      </c>
+      <c r="S2" t="s">
+        <v>154</v>
+      </c>
+      <c r="T2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>334995121</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" t="s">
+        <v>165</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3">
+        <v>29222</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="N3" t="s">
+        <v>168</v>
+      </c>
+      <c r="O3" t="s">
+        <v>169</v>
+      </c>
+      <c r="P3" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>45359</v>
+      </c>
+      <c r="R3" t="s">
+        <v>152</v>
+      </c>
+      <c r="S3" t="s">
+        <v>154</v>
+      </c>
+      <c r="T3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>233058317</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
+        <v>65</v>
+      </c>
+      <c r="I4" t="s">
+        <v>71</v>
+      </c>
+      <c r="K4">
+        <v>60754</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="N4" t="s">
+        <v>175</v>
+      </c>
+      <c r="O4" t="s">
+        <v>176</v>
+      </c>
+      <c r="P4" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>45366</v>
+      </c>
+      <c r="R4" t="s">
+        <v>152</v>
+      </c>
+      <c r="S4" t="s">
+        <v>154</v>
+      </c>
+      <c r="T4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>909515300</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="K5">
+        <v>16069</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="N5" t="s">
+        <v>182</v>
+      </c>
+      <c r="O5" t="s">
+        <v>183</v>
+      </c>
+      <c r="P5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>45373</v>
+      </c>
+      <c r="R5" t="s">
+        <v>152</v>
+      </c>
+      <c r="S5" t="s">
+        <v>154</v>
+      </c>
+      <c r="T5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>404544613</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6">
+        <v>79709</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="N6" t="s">
+        <v>190</v>
+      </c>
+      <c r="O6" t="s">
+        <v>191</v>
+      </c>
+      <c r="P6" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>45380</v>
+      </c>
+      <c r="R6" t="s">
+        <v>152</v>
+      </c>
+      <c r="S6" t="s">
+        <v>154</v>
+      </c>
+      <c r="T6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>711176066</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+      <c r="I7" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7">
+        <v>40628</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="N7" t="s">
+        <v>197</v>
+      </c>
+      <c r="O7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q7" s="4">
+        <v>45387</v>
+      </c>
+      <c r="R7" t="s">
+        <v>152</v>
+      </c>
+      <c r="S7" t="s">
+        <v>154</v>
+      </c>
+      <c r="T7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>386662661</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" t="s">
+        <v>202</v>
+      </c>
+      <c r="J8" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8">
+        <v>58770</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="N8" t="s">
+        <v>205</v>
+      </c>
+      <c r="O8" t="s">
+        <v>206</v>
+      </c>
+      <c r="P8" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>45394</v>
+      </c>
+      <c r="R8" t="s">
+        <v>152</v>
+      </c>
+      <c r="S8" t="s">
+        <v>154</v>
+      </c>
+      <c r="T8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>433038232</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" t="s">
+        <v>210</v>
+      </c>
+      <c r="K9">
+        <v>70712</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="N9" t="s">
+        <v>213</v>
+      </c>
+      <c r="O9" t="s">
+        <v>214</v>
+      </c>
+      <c r="P9" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q9" s="4">
+        <v>45401</v>
+      </c>
+      <c r="R9" t="s">
+        <v>152</v>
+      </c>
+      <c r="S9" t="s">
+        <v>154</v>
+      </c>
+      <c r="T9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>447798877</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>60</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" t="s">
+        <v>218</v>
+      </c>
+      <c r="K10">
+        <v>20091</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="N10" t="s">
+        <v>221</v>
+      </c>
+      <c r="O10" t="s">
+        <v>222</v>
+      </c>
+      <c r="P10" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>45408</v>
+      </c>
+      <c r="R10" t="s">
+        <v>152</v>
+      </c>
+      <c r="S10" t="s">
+        <v>154</v>
+      </c>
+      <c r="T10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11">
+        <v>797254182</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J11" t="s">
+        <v>81</v>
+      </c>
+      <c r="K11">
+        <v>41561</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="N11" t="s">
+        <v>228</v>
+      </c>
+      <c r="O11" t="s">
+        <v>229</v>
+      </c>
+      <c r="P11" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>45415</v>
+      </c>
+      <c r="R11" t="s">
+        <v>152</v>
+      </c>
+      <c r="S11" t="s">
+        <v>154</v>
+      </c>
+      <c r="T11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>210834492</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H12" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" t="s">
+        <v>233</v>
+      </c>
+      <c r="J12" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12">
+        <v>26834</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="N12" t="s">
+        <v>236</v>
+      </c>
+      <c r="O12" t="s">
+        <v>237</v>
+      </c>
+      <c r="P12" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>45422</v>
+      </c>
+      <c r="R12" t="s">
+        <v>152</v>
+      </c>
+      <c r="S12" t="s">
+        <v>154</v>
+      </c>
+      <c r="T12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13">
+        <v>979893714</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" t="s">
+        <v>241</v>
+      </c>
+      <c r="J13" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13">
+        <v>14204</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="N13" t="s">
+        <v>244</v>
+      </c>
+      <c r="O13" t="s">
+        <v>245</v>
+      </c>
+      <c r="P13" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q13" s="4">
+        <v>45429</v>
+      </c>
+      <c r="R13" t="s">
+        <v>152</v>
+      </c>
+      <c r="S13" t="s">
+        <v>154</v>
+      </c>
+      <c r="T13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>380551628</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" t="s">
+        <v>249</v>
+      </c>
+      <c r="K14">
+        <v>87306</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="N14" t="s">
+        <v>252</v>
+      </c>
+      <c r="O14" t="s">
+        <v>253</v>
+      </c>
+      <c r="P14" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q14" s="4">
+        <v>45436</v>
+      </c>
+      <c r="R14" t="s">
+        <v>152</v>
+      </c>
+      <c r="S14" t="s">
+        <v>154</v>
+      </c>
+      <c r="T14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15">
+        <v>829211605</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" t="s">
+        <v>257</v>
+      </c>
+      <c r="K15">
+        <v>48776</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="N15" t="s">
+        <v>260</v>
+      </c>
+      <c r="O15" t="s">
+        <v>261</v>
+      </c>
+      <c r="P15" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>45443</v>
+      </c>
+      <c r="R15" t="s">
+        <v>152</v>
+      </c>
+      <c r="S15" t="s">
+        <v>154</v>
+      </c>
+      <c r="T15" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>263</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16">
+        <v>279781862</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" t="s">
+        <v>72</v>
+      </c>
+      <c r="J16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16">
+        <v>97466</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="N16" t="s">
+        <v>267</v>
+      </c>
+      <c r="O16" t="s">
+        <v>268</v>
+      </c>
+      <c r="P16" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>45450</v>
+      </c>
+      <c r="R16" t="s">
+        <v>152</v>
+      </c>
+      <c r="S16" t="s">
+        <v>154</v>
+      </c>
+      <c r="T16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>270</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17">
+        <v>820064826</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" t="s">
+        <v>272</v>
+      </c>
+      <c r="J17" t="s">
+        <v>78</v>
+      </c>
+      <c r="K17">
+        <v>29763</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="N17" t="s">
+        <v>275</v>
+      </c>
+      <c r="O17" t="s">
+        <v>276</v>
+      </c>
+      <c r="P17" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q17" s="4">
+        <v>45457</v>
+      </c>
+      <c r="R17" t="s">
+        <v>152</v>
+      </c>
+      <c r="S17" t="s">
+        <v>154</v>
+      </c>
+      <c r="T17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18">
+        <v>912247571</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E18" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
+      <c r="H18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" t="s">
+        <v>280</v>
+      </c>
+      <c r="K18">
+        <v>11496</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="N18" t="s">
+        <v>283</v>
+      </c>
+      <c r="O18" t="s">
+        <v>284</v>
+      </c>
+      <c r="P18" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q18" s="4">
+        <v>45464</v>
+      </c>
+      <c r="R18" t="s">
+        <v>152</v>
+      </c>
+      <c r="S18" t="s">
+        <v>154</v>
+      </c>
+      <c r="T18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>286</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>537308149</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" t="s">
+        <v>63</v>
+      </c>
+      <c r="H19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" t="s">
+        <v>288</v>
+      </c>
+      <c r="K19">
+        <v>95472</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="N19" t="s">
+        <v>291</v>
+      </c>
+      <c r="O19" t="s">
+        <v>292</v>
+      </c>
+      <c r="P19" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>45471</v>
+      </c>
+      <c r="R19" t="s">
+        <v>152</v>
+      </c>
+      <c r="S19" t="s">
+        <v>154</v>
+      </c>
+      <c r="T19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>294</v>
+      </c>
+      <c r="B20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>585634172</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F20" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" t="s">
+        <v>296</v>
+      </c>
+      <c r="J20" t="s">
+        <v>79</v>
+      </c>
+      <c r="K20">
+        <v>65495</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="N20" t="s">
+        <v>299</v>
+      </c>
+      <c r="O20" t="s">
+        <v>300</v>
+      </c>
+      <c r="P20" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>45478</v>
+      </c>
+      <c r="R20" t="s">
+        <v>152</v>
+      </c>
+      <c r="S20" t="s">
+        <v>154</v>
+      </c>
+      <c r="T20" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>302</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>722223552</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" t="s">
+        <v>249</v>
+      </c>
+      <c r="J21" t="s">
+        <v>79</v>
+      </c>
+      <c r="K21">
+        <v>24621</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="N21" t="s">
+        <v>306</v>
+      </c>
+      <c r="O21" t="s">
+        <v>307</v>
+      </c>
+      <c r="P21" t="s">
+        <v>308</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>45485</v>
+      </c>
+      <c r="R21" t="s">
+        <v>152</v>
+      </c>
+      <c r="S21" t="s">
+        <v>154</v>
+      </c>
+      <c r="T21" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>309</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22">
+        <v>332395922</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>60</v>
+      </c>
+      <c r="G22" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" t="s">
+        <v>66</v>
+      </c>
+      <c r="I22" t="s">
+        <v>296</v>
+      </c>
+      <c r="K22">
+        <v>50805</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="N22" t="s">
+        <v>313</v>
+      </c>
+      <c r="O22" t="s">
+        <v>314</v>
+      </c>
+      <c r="P22" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>45492</v>
+      </c>
+      <c r="R22" t="s">
+        <v>152</v>
+      </c>
+      <c r="S22" t="s">
+        <v>154</v>
+      </c>
+      <c r="T22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>316</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>776148311</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" t="s">
+        <v>66</v>
+      </c>
+      <c r="I23" t="s">
+        <v>318</v>
+      </c>
+      <c r="J23" t="s">
+        <v>79</v>
+      </c>
+      <c r="K23">
+        <v>88646</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="N23" t="s">
+        <v>321</v>
+      </c>
+      <c r="O23" t="s">
+        <v>322</v>
+      </c>
+      <c r="P23" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>45499</v>
+      </c>
+      <c r="R23" t="s">
+        <v>152</v>
+      </c>
+      <c r="S23" t="s">
+        <v>154</v>
+      </c>
+      <c r="T23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>324</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>866784068</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" t="s">
+        <v>249</v>
+      </c>
+      <c r="J24" t="s">
+        <v>78</v>
+      </c>
+      <c r="K24">
+        <v>40179</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="N24" t="s">
+        <v>328</v>
+      </c>
+      <c r="O24" t="s">
+        <v>329</v>
+      </c>
+      <c r="P24" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>45506</v>
+      </c>
+      <c r="R24" t="s">
+        <v>152</v>
+      </c>
+      <c r="S24" t="s">
+        <v>154</v>
+      </c>
+      <c r="T24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>331</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25">
+        <v>719046046</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="E25" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G25" t="s">
+        <v>64</v>
+      </c>
+      <c r="H25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" t="s">
+        <v>241</v>
+      </c>
+      <c r="J25" t="s">
+        <v>78</v>
+      </c>
+      <c r="K25">
+        <v>26957</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="N25" t="s">
+        <v>335</v>
+      </c>
+      <c r="O25" t="s">
+        <v>336</v>
+      </c>
+      <c r="P25" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>45513</v>
+      </c>
+      <c r="R25" t="s">
+        <v>152</v>
+      </c>
+      <c r="S25" t="s">
+        <v>154</v>
+      </c>
+      <c r="T25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>338</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>627772248</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" t="s">
+        <v>61</v>
+      </c>
+      <c r="H26" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" t="s">
+        <v>157</v>
+      </c>
+      <c r="J26" t="s">
+        <v>79</v>
+      </c>
+      <c r="K26">
+        <v>16370</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="N26" t="s">
+        <v>342</v>
+      </c>
+      <c r="O26" t="s">
+        <v>343</v>
+      </c>
+      <c r="P26" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>45520</v>
+      </c>
+      <c r="R26" t="s">
+        <v>152</v>
+      </c>
+      <c r="S26" t="s">
+        <v>154</v>
+      </c>
+      <c r="T26" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>345</v>
+      </c>
+      <c r="B27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27">
+        <v>105704113</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" t="s">
+        <v>59</v>
+      </c>
+      <c r="G27" t="s">
+        <v>63</v>
+      </c>
+      <c r="H27" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" t="s">
+        <v>187</v>
+      </c>
+      <c r="J27" t="s">
+        <v>78</v>
+      </c>
+      <c r="K27">
+        <v>34396</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="N27" t="s">
+        <v>349</v>
+      </c>
+      <c r="O27" t="s">
+        <v>350</v>
+      </c>
+      <c r="P27" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>45527</v>
+      </c>
+      <c r="R27" t="s">
+        <v>152</v>
+      </c>
+      <c r="S27" t="s">
+        <v>154</v>
+      </c>
+      <c r="T27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>352</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>846744550</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="E28" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H28" t="s">
+        <v>66</v>
+      </c>
+      <c r="I28" t="s">
+        <v>354</v>
+      </c>
+      <c r="J28" t="s">
+        <v>78</v>
+      </c>
+      <c r="K28">
+        <v>96182</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="N28" t="s">
+        <v>357</v>
+      </c>
+      <c r="O28" t="s">
+        <v>358</v>
+      </c>
+      <c r="P28" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>45534</v>
+      </c>
+      <c r="R28" t="s">
+        <v>152</v>
+      </c>
+      <c r="S28" t="s">
+        <v>154</v>
+      </c>
+      <c r="T28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>360</v>
+      </c>
+      <c r="B29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29">
+        <v>634162445</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" t="s">
+        <v>61</v>
+      </c>
+      <c r="H29" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" t="s">
+        <v>362</v>
+      </c>
+      <c r="J29" t="s">
+        <v>81</v>
+      </c>
+      <c r="K29">
+        <v>84927</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="N29" t="s">
+        <v>365</v>
+      </c>
+      <c r="O29" t="s">
+        <v>366</v>
+      </c>
+      <c r="P29" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>45541</v>
+      </c>
+      <c r="R29" t="s">
+        <v>152</v>
+      </c>
+      <c r="S29" t="s">
+        <v>154</v>
+      </c>
+      <c r="T29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>368</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>583315860</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" t="s">
+        <v>370</v>
+      </c>
+      <c r="J30" t="s">
+        <v>81</v>
+      </c>
+      <c r="K30">
+        <v>64725</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="N30" t="s">
+        <v>373</v>
+      </c>
+      <c r="O30" t="s">
+        <v>374</v>
+      </c>
+      <c r="P30" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>45548</v>
+      </c>
+      <c r="R30" t="s">
+        <v>152</v>
+      </c>
+      <c r="S30" t="s">
+        <v>154</v>
+      </c>
+      <c r="T30" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>376</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31">
+        <v>902806469</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E31" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G31" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" t="s">
+        <v>288</v>
+      </c>
+      <c r="J31" t="s">
+        <v>79</v>
+      </c>
+      <c r="K31">
+        <v>23775</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="N31" t="s">
+        <v>380</v>
+      </c>
+      <c r="O31" t="s">
+        <v>381</v>
+      </c>
+      <c r="P31" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>45555</v>
+      </c>
+      <c r="R31" t="s">
+        <v>152</v>
+      </c>
+      <c r="S31" t="s">
+        <v>154</v>
+      </c>
+      <c r="T31" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>